--- a/MiniJaJa/rapports/BurdownChart/BurnDownChartCompilationSprint2.xlsx
+++ b/MiniJaJa/rapports/BurdownChart/BurnDownChartCompilationSprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murat\Documents\MiniJaja\rapports\BurdownChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1167CA5B-EF88-4A41-B205-05227328B824}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F65380-7D8B-481F-B86D-C88FC4C63A1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,8 +256,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30404155730533683"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.30126377952755906"/>
+          <c:y val="3.2407407407407406E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -322,6 +322,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$22:$B$38</c:f>
@@ -1190,15 +1204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1584960</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>1546860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1429,8 +1443,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
